--- a/Test Cases for Mars.xlsx
+++ b/Test Cases for Mars.xlsx
@@ -161,7 +161,7 @@
     </r>
   </si>
   <si>
-    <t>smock cases</t>
+    <t>smoke cases</t>
   </si>
   <si>
     <t>all pass</t>
@@ -1513,6 +1513,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Description: </t>
     </r>
     <r>
@@ -1599,6 +1606,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Skill Name:</t>
     </r>
     <r>
@@ -1664,6 +1678,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Title*:</t>
     </r>
     <r>
@@ -1816,6 +1837,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Card Name: Gary Gao
 Tag Name:</t>
     </r>
@@ -1904,11 +1932,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="24">
@@ -1936,7 +1964,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1958,67 +2008,12 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -2027,22 +2022,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2058,14 +2038,39 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2076,6 +2081,29 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2126,7 +2154,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2138,7 +2178,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2150,7 +2190,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2162,61 +2214,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2228,73 +2244,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2307,6 +2269,72 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2456,30 +2484,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2524,17 +2528,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2553,16 +2548,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2571,133 +2599,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3194,8 +3222,8 @@
   <sheetPr/>
   <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="G91" sqref="G91"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -4574,7 +4602,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:E19"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
